--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
   <si>
     <t>Как погиб Геракл?</t>
   </si>
@@ -153,18 +153,12 @@
     <t>Чудовище с телом льва, головой человека и хвостом скорпиона</t>
   </si>
   <si>
-    <t>Змея, которая убивает любого, кто на неё взглянет.</t>
-  </si>
-  <si>
     <t>Василиск</t>
   </si>
   <si>
     <t>Девушки, похожие на птиц, чья неотразимая песня заманивала моряков на верную смерть</t>
   </si>
   <si>
-    <t>Многоголовое змееподобное существо, охранявшее вход в Подземный мир и уничтоженая Гераклом</t>
-  </si>
-  <si>
     <t>Лернейская гидра</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Ксенофонт</t>
   </si>
   <si>
-    <t>Аристотель</t>
-  </si>
-  <si>
     <t>textQue</t>
   </si>
   <si>
@@ -271,6 +262,159 @@
   </si>
   <si>
     <t xml:space="preserve"> no_pic</t>
+  </si>
+  <si>
+    <t>Утонул в реке</t>
+  </si>
+  <si>
+    <t>Убит в бою</t>
+  </si>
+  <si>
+    <t>Отравленный кровью кентавра Несса, умирающий Геракл построил себе костер, чтобы сгореть на нем заживо.</t>
+  </si>
+  <si>
+    <t>Умер от старости</t>
+  </si>
+  <si>
+    <t>Превратился в статую</t>
+  </si>
+  <si>
+    <t>Разрублен пополам</t>
+  </si>
+  <si>
+    <t>Шлем и доспехи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плащ-гиас </t>
+  </si>
+  <si>
+    <t>Майку и шорты</t>
+  </si>
+  <si>
+    <t>Хитон и тога</t>
+  </si>
+  <si>
+    <t>Дикая роза</t>
+  </si>
+  <si>
+    <t>Олива</t>
+  </si>
+  <si>
+    <t>Маслины</t>
+  </si>
+  <si>
+    <t>Апельсины</t>
+  </si>
+  <si>
+    <t>Полынь</t>
+  </si>
+  <si>
+    <t>Афины</t>
+  </si>
+  <si>
+    <t>Спарта</t>
+  </si>
+  <si>
+    <t>Салоники</t>
+  </si>
+  <si>
+    <t>Родос</t>
+  </si>
+  <si>
+    <t>Ираклион</t>
+  </si>
+  <si>
+    <t>Единороги</t>
+  </si>
+  <si>
+    <t>Пони</t>
+  </si>
+  <si>
+    <t>Сатир</t>
+  </si>
+  <si>
+    <t>Дракейна</t>
+  </si>
+  <si>
+    <t>Тифон</t>
+  </si>
+  <si>
+    <t>Фенрир</t>
+  </si>
+  <si>
+    <t>Гарм</t>
+  </si>
+  <si>
+    <t>Гончие Габриэля</t>
+  </si>
+  <si>
+    <t>Ку Ши</t>
+  </si>
+  <si>
+    <t>Орф</t>
+  </si>
+  <si>
+    <t>Гарпии</t>
+  </si>
+  <si>
+    <t>Гаргульи</t>
+  </si>
+  <si>
+    <t>Зевс</t>
+  </si>
+  <si>
+    <t>Горгона Медуза</t>
+  </si>
+  <si>
+    <t>Змея, которая убивает любого одним своим взглядом</t>
+  </si>
+  <si>
+    <t>Дракайна</t>
+  </si>
+  <si>
+    <t>Ламия</t>
+  </si>
+  <si>
+    <t>Ехидна</t>
+  </si>
+  <si>
+    <t>Сирена</t>
+  </si>
+  <si>
+    <t>Титан</t>
+  </si>
+  <si>
+    <t>Кронос</t>
+  </si>
+  <si>
+    <t>Кой</t>
+  </si>
+  <si>
+    <t>Океан</t>
+  </si>
+  <si>
+    <t>Мнемосина</t>
+  </si>
+  <si>
+    <t>Гарпия</t>
+  </si>
+  <si>
+    <t>Дриада</t>
+  </si>
+  <si>
+    <t>Гаруда</t>
+  </si>
+  <si>
+    <t>Геката</t>
+  </si>
+  <si>
+    <t>Русалки</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Уроборос</t>
   </si>
 </sst>
 </file>
@@ -316,9 +460,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,445 +763,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="F22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="G24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="F25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>81</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1059,91 +1414,86 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>81</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="H31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
   <si>
     <t>Как погиб Геракл?</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Из каких источников стали известны мифы Древней Греции?</t>
   </si>
   <si>
-    <t xml:space="preserve"> «Илиада» Гомера</t>
-  </si>
-  <si>
     <t>Как называлась пища греческих богов, давшая им вечную молодость?</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Гестия</t>
   </si>
   <si>
-    <t>t_acoin</t>
-  </si>
-  <si>
     <t>Сколько голов у адского пса Цербера?</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>Аркадий</t>
   </si>
   <si>
-    <t>Дедал первым из людей взлетел в небо на крыльях, изготовленных человеческой рукой, и сумел благополучно приземлиться.</t>
-  </si>
-  <si>
     <t>Геродот</t>
   </si>
   <si>
@@ -288,12 +279,6 @@
     <t xml:space="preserve">Плащ-гиас </t>
   </si>
   <si>
-    <t>Майку и шорты</t>
-  </si>
-  <si>
-    <t>Хитон и тога</t>
-  </si>
-  <si>
     <t>Дикая роза</t>
   </si>
   <si>
@@ -415,6 +400,180 @@
   </si>
   <si>
     <t>Уроборос</t>
+  </si>
+  <si>
+    <t>Арес</t>
+  </si>
+  <si>
+    <t>Посейдон</t>
+  </si>
+  <si>
+    <t>Тритон</t>
+  </si>
+  <si>
+    <t>Порфирион</t>
+  </si>
+  <si>
+    <t>Орион</t>
+  </si>
+  <si>
+    <t>Офион</t>
+  </si>
+  <si>
+    <t>Пифагор</t>
+  </si>
+  <si>
+    <t>Ясон</t>
+  </si>
+  <si>
+    <t>Икар, несмотря на предупреждение отца Дедала, взлетел слишком высоко. От лучей солнца воск, скреплявший его крылья, растаял, и Икар упал в море</t>
+  </si>
+  <si>
+    <t>Дедал первым из людей взлетел в небо на крыльях, изготовленных собственноручно, и сумел благополучно приземлиться.</t>
+  </si>
+  <si>
+    <t>Сцилла</t>
+  </si>
+  <si>
+    <t>Дриады</t>
+  </si>
+  <si>
+    <t>Горгоны</t>
+  </si>
+  <si>
+    <t>Сатиры</t>
+  </si>
+  <si>
+    <t>Прометей</t>
+  </si>
+  <si>
+    <t>Кипарис</t>
+  </si>
+  <si>
+    <t>Гефест</t>
+  </si>
+  <si>
+    <t>Борей</t>
+  </si>
+  <si>
+    <t>Фобос</t>
+  </si>
+  <si>
+    <t>Деймос</t>
+  </si>
+  <si>
+    <t>Феникс</t>
+  </si>
+  <si>
+    <t>Керкопы</t>
+  </si>
+  <si>
+    <t>о.Кипр</t>
+  </si>
+  <si>
+    <t>Олимп</t>
+  </si>
+  <si>
+    <t>Эгейское море</t>
+  </si>
+  <si>
+    <t>Кони Диомеда</t>
+  </si>
+  <si>
+    <t>Мифические крылатые существа с туловищем льва и птичьей головой, олицетворяющие силу, мощь и защиту.</t>
+  </si>
+  <si>
+    <t>Гекатонхейры</t>
+  </si>
+  <si>
+    <t>Пифон</t>
+  </si>
+  <si>
+    <t>Дактили</t>
+  </si>
+  <si>
+    <t>Кентавр</t>
+  </si>
+  <si>
+    <t>Фемида</t>
+  </si>
+  <si>
+    <t>Эвридика</t>
+  </si>
+  <si>
+    <t>Метида</t>
+  </si>
+  <si>
+    <t>Амфитрита</t>
+  </si>
+  <si>
+    <t>Именем этой богини называют злых и сварливых женщин</t>
+  </si>
+  <si>
+    <t>Мегера</t>
+  </si>
+  <si>
+    <t>Богиня кровной мести, преследующая виновных и доводящих их до безумия, олицетворение зависти и гнева</t>
+  </si>
+  <si>
+    <t>Фурия</t>
+  </si>
+  <si>
+    <t>Стерва</t>
+  </si>
+  <si>
+    <t>Гнида</t>
+  </si>
+  <si>
+    <t>Голиаф</t>
+  </si>
+  <si>
+    <t>Кумбхакарна</t>
+  </si>
+  <si>
+    <t>Огр</t>
+  </si>
+  <si>
+    <t>Паллада</t>
+  </si>
+  <si>
+    <t>Грайи</t>
+  </si>
+  <si>
+    <t>растворилась в ручье</t>
+  </si>
+  <si>
+    <t>растаяла на солнце</t>
+  </si>
+  <si>
+    <t>Басни Эзопа</t>
+  </si>
+  <si>
+    <t>Трагедии Софокла</t>
+  </si>
+  <si>
+    <t>Эпосы Гомера</t>
+  </si>
+  <si>
+    <t>Труды Платона</t>
+  </si>
+  <si>
+    <t>Труды Аристотеля</t>
+  </si>
+  <si>
+    <t>Гимны Сафо</t>
+  </si>
+  <si>
+    <t>Пеплос</t>
+  </si>
+  <si>
+    <t>Трибон</t>
+  </si>
+  <si>
+    <t>Гиматий и хитон</t>
+  </si>
+  <si>
+    <t>t_acoin.webp</t>
   </si>
 </sst>
 </file>
@@ -763,18 +922,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="100.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -782,34 +943,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -817,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -849,25 +1010,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>90</v>
+        <v>184</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -875,488 +1039,674 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>178</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
+      <c r="F13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+      <c r="F14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
+      <c r="F16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>33</v>
+      <c r="F19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>35</v>
+      <c r="F20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1376,124 +1726,162 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>66</v>
+      <c r="I30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>74</v>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
   <si>
     <t>Как погиб Геракл?</t>
   </si>
@@ -574,6 +574,108 @@
   </si>
   <si>
     <t>t_acoin.webp</t>
+  </si>
+  <si>
+    <t>В качестве одежды Геракл носил шкуру льва.</t>
+  </si>
+  <si>
+    <t>Основными источниками изучения греческой мифологии являются «Илиада» и «Одиссея» Гомера.</t>
+  </si>
+  <si>
+    <t>Амброзия — пища греческих богов, дававшая им вечную молодость и бессмертие.</t>
+  </si>
+  <si>
+    <t>Статуя Зевса, третье чудо света Древнего мира, находилась в Греции в городе Олимпия в Мраморном храме Зевса.</t>
+  </si>
+  <si>
+    <t>Дикие, смертные существа с головой и торсом человека на теле лошади, обитатели гор и лесных чащ.</t>
+  </si>
+  <si>
+    <t>Чудовище с головой и шеей льва, туловищем козы и хвостом в виде змеи. Порождение Тифона и Ехидны.</t>
+  </si>
+  <si>
+    <t>Женщины, похожие на птиц, чья неотразимая песня заманивала моряков на верную смерть</t>
+  </si>
+  <si>
+    <t>Трёхголовый пёс, охраняющий выход из царства мёртвых в Аиде. Он является порождением Тифона и Ехидны.</t>
+  </si>
+  <si>
+    <t>Чудовище с головой женщины, лапами и телом льва, крыльями орла и хвостом быка. Персонаж легенды об Эдипе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бог мертвых и царь подземного мира, с которым его имя стало синонимом. Старший сын Крона и Реи. </t>
+  </si>
+  <si>
+    <t>На острове на высоте 1050 м над уровнем моря находится пещера, в которой по легендам был ражден Зевс</t>
+  </si>
+  <si>
+    <t>Самая известная из трёх сестёр горгон и единственная смертная из них.</t>
+  </si>
+  <si>
+    <t>Минотавр был сыном Пасифаи, жены царя Миноса, и быка, посланного на Крит богом Посейдоном.</t>
+  </si>
+  <si>
+    <t>Сын Зевса и Лето. Бог света, покровитель искусств, предводитель муз, олицетворение мужской красоты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богиня красоты и любви, одна из двенадцати олимпийских богов. Дочь Зевса и Дионы. </t>
+  </si>
+  <si>
+    <t>Порождение Геи и Урана.</t>
+  </si>
+  <si>
+    <t>Нимфы рек, ручьёв и озёр в греческой мифологии, которые похожи на невероятно красивых девушек.</t>
+  </si>
+  <si>
+    <t>Да, сатиры умеют играть на флейте -это один из основных атрибутов этих персонажей.</t>
+  </si>
+  <si>
+    <t>Змей с головами на обоих концах тела - это позволяло ей двигаться в любом направлении и нападать на врагов с двух сторон.</t>
+  </si>
+  <si>
+    <t>Чудовище размером с лошадь, с телом льва и хвостом скорпиона, иногда с головой человека. В современных фэнтези мантикора часто крылата.</t>
+  </si>
+  <si>
+    <t>Мифический змей, убивающий взглядом.</t>
+  </si>
+  <si>
+    <t>Считается, что у Церберае три головы, причём средняя голова может быть львиной</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pic44</t>
   </si>
 </sst>
 </file>
@@ -925,14 +1027,15 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="100.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
@@ -951,7 +1054,7 @@
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -983,7 +1086,7 @@
       <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1009,10 +1112,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
       <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1038,10 +1144,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1067,10 +1176,13 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
       <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1096,10 +1208,13 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1125,11 +1240,14 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
-        <v>78</v>
+      <c r="D7" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -1154,11 +1272,14 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
       <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" t="s">
-        <v>78</v>
+      <c r="D8" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -1183,11 +1304,14 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
+      <c r="D9" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -1212,11 +1336,14 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
+      <c r="D10" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -1247,8 +1374,8 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
+      <c r="D11" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -1273,11 +1400,14 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
       <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
-        <v>78</v>
+      <c r="D12" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -1302,10 +1432,13 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1331,10 +1464,13 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
       <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1360,11 +1496,14 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
       <c r="C15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>78</v>
+      <c r="D15" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>110</v>
@@ -1389,11 +1528,14 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>78</v>
+      <c r="D16" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -1418,10 +1560,13 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1447,10 +1592,13 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1476,11 +1624,14 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
       <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
+      <c r="D19" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
@@ -1505,11 +1656,14 @@
       <c r="A20" t="s">
         <v>33</v>
       </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
-        <v>78</v>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>34</v>
@@ -1540,7 +1694,7 @@
       <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1566,11 +1720,14 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
       <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
-        <v>78</v>
+      <c r="D22" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>38</v>
@@ -1583,10 +1740,13 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
       <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1612,10 +1772,13 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
       <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1641,11 +1804,14 @@
       <c r="A25" t="s">
         <v>111</v>
       </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
       <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
-        <v>78</v>
+      <c r="D25" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>44</v>
@@ -1676,7 +1842,7 @@
       <c r="C26" t="s">
         <v>185</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1702,11 +1868,14 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
       <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>78</v>
+      <c r="D27" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1734,8 +1903,8 @@
       <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" t="s">
-        <v>78</v>
+      <c r="D28" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
@@ -1766,7 +1935,7 @@
       <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1798,7 +1967,7 @@
       <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1830,7 +1999,7 @@
       <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1862,7 +2031,7 @@
       <c r="C32" t="s">
         <v>78</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="3" t="s">

--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\myth\quiz\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="28755" windowHeight="12090"/>
   </bookViews>
@@ -681,8 +686,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +741,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -782,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,9 +827,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,6 +862,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1023,16 +1038,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" customWidth="1"/>
+    <col min="1" max="1" width="104.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
@@ -1044,7 +1059,7 @@
     <col min="10" max="10" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1492,7 +1507,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1667,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1893,7 +1908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2060,24 +2075,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\myth\quiz\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="28755" windowHeight="12090"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="236">
   <si>
     <t>Как погиб Геракл?</t>
   </si>
@@ -257,9 +252,6 @@
     <t>Он меткий стрелок_И на лире играет_9 муз его окружают_В блеске и свете является он_Брат Артемиды, бог -</t>
   </si>
   <si>
-    <t xml:space="preserve"> no_pic</t>
-  </si>
-  <si>
     <t>Утонул в реке</t>
   </si>
   <si>
@@ -647,47 +639,98 @@
     <t>Считается, что у Церберае три головы, причём средняя голова может быть львиной</t>
   </si>
   <si>
-    <t xml:space="preserve"> pic94</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic81</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic77</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pic44</t>
+    <t>pic301</t>
+  </si>
+  <si>
+    <t>pic302</t>
+  </si>
+  <si>
+    <t>pic306</t>
+  </si>
+  <si>
+    <t>pic307</t>
+  </si>
+  <si>
+    <t>gr_gerakl.webp</t>
+  </si>
+  <si>
+    <t>gr_ambro.webp</t>
+  </si>
+  <si>
+    <t>gr_olimpia.webp</t>
+  </si>
+  <si>
+    <t>gr_krit.webp</t>
+  </si>
+  <si>
+    <t>gr_ikar.webp</t>
+  </si>
+  <si>
+    <t>gr_pan.webp</t>
+  </si>
+  <si>
+    <t>gr_atlant.webp</t>
+  </si>
+  <si>
+    <t>gr_dedal.webp</t>
+  </si>
+  <si>
+    <t>pic304</t>
+  </si>
+  <si>
+    <t>pic96</t>
+  </si>
+  <si>
+    <t>pic59</t>
+  </si>
+  <si>
+    <t>pic80</t>
+  </si>
+  <si>
+    <t>pic95</t>
+  </si>
+  <si>
+    <t>pic14</t>
+  </si>
+  <si>
+    <t>pic289</t>
+  </si>
+  <si>
+    <t>pic77</t>
+  </si>
+  <si>
+    <t>no_pic</t>
+  </si>
+  <si>
+    <t>pic44</t>
+  </si>
+  <si>
+    <t>pic94</t>
+  </si>
+  <si>
+    <t>pic81</t>
+  </si>
+  <si>
+    <t>pic20</t>
+  </si>
+  <si>
+    <t>pic54</t>
+  </si>
+  <si>
+    <t>pic57</t>
+  </si>
+  <si>
+    <t>pic308</t>
+  </si>
+  <si>
+    <t>pic309</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -735,20 +778,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -795,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,10 +865,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,7 +899,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1038,19 +1074,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="104.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.42578125" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
@@ -1059,7 +1095,7 @@
     <col min="10" max="10" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1091,184 +1127,184 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
@@ -1277,24 +1313,24 @@
         <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -1309,228 +1345,228 @@
         <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>41</v>
@@ -1539,24 +1575,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>12</v>
@@ -1568,53 +1604,53 @@
         <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1623,94 +1659,94 @@
         <v>50</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>36</v>
@@ -1719,50 +1755,50 @@
         <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="I21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>40</v>
@@ -1771,30 +1807,30 @@
         <v>41</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>41</v>
@@ -1809,45 +1845,45 @@
         <v>27</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1855,10 +1891,10 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>49</v>
@@ -1879,18 +1915,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1908,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1916,10 +1952,10 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
@@ -1928,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>30</v>
@@ -1940,7 +1976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1948,31 +1984,31 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1980,10 +2016,10 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>61</v>
@@ -1998,24 +2034,24 @@
         <v>64</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>227</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>67</v>
@@ -2036,36 +2072,36 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2075,24 +2111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myth/quiz/xlsx/ancient_greece.xlsx
+++ b/myth/quiz/xlsx/ancient_greece.xlsx
@@ -1042,13 +1042,13 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G22" sqref="G22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="104.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
@@ -1060,13 +1060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1092,13 +1092,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1124,13 +1124,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1156,13 +1156,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1188,13 +1188,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1220,13 +1220,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1252,13 +1252,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1284,13 +1284,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1316,13 +1316,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1348,13 +1348,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1380,13 +1380,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1412,13 +1412,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1444,13 +1444,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1476,13 +1476,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1508,13 +1508,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1540,13 +1540,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1572,13 +1572,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1604,13 +1604,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1636,13 +1636,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1668,13 +1668,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1700,13 +1700,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1732,13 +1732,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1752,13 +1752,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1784,13 +1784,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1816,13 +1816,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1848,13 +1848,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1880,13 +1880,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1909,13 +1909,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1941,13 +1941,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1973,13 +1973,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2005,13 +2005,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2037,13 +2037,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
